--- a/TestList/buyclass-student.xlsx
+++ b/TestList/buyclass-student.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>序号
 （id）</t>
@@ -57,7 +57,7 @@
     <t>空</t>
   </si>
   <si>
-    <t>id</t>
+    <t>Account number</t>
   </si>
   <si>
     <t>输入</t>
@@ -66,7 +66,7 @@
     <t>Xpath</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div[3]/div/form/ul/li[1]/input</t>
+    <t>//input[contains(@ng-model,'model.use.useName')]</t>
   </si>
   <si>
     <t>888888888888888882</t>
@@ -75,31 +75,28 @@
     <t>password</t>
   </si>
   <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div[3]/div/form/ul/li[2]/input</t>
+    <t>//input[contains(@ng-model,'model.use.password')]</t>
   </si>
   <si>
     <t>000000</t>
   </si>
   <si>
-    <t>clickcode</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div[3]/div/form/ul/li[3]/input</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'picValidateCode')]</t>
   </si>
   <si>
     <t>!$#2</t>
   </si>
   <si>
-    <t>click</t>
+    <t>login</t>
   </si>
   <si>
     <t>点击</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>/html/body/div[1]/div/div[2]/div[2]/div[3]/div/form/ul/li[4]/button</t>
+    <t>//button[contains(@ng-bind,'Ing')]</t>
   </si>
   <si>
     <t>classdetail</t>
@@ -131,9 +128,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -160,6 +157,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -167,6 +165,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -175,30 +201,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,33 +249,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,24 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +278,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -298,12 +295,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,169 +433,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +486,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,37 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,7 +543,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,8 +551,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,131 +604,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1205,7 +1202,7 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1225,48 +1222,48 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:6">
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1277,7 +1274,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1285,8 +1282,8 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1297,55 +1294,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7 C8 C9 C10">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D65497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D65495">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="http://testynsf.59iedu.com/index" tooltip="http://testynsf.59iedu.com/index"/>
+    <hyperlink ref="E10" r:id="rId1" display="http://testynsf.59iedu.com/index" tooltip="http://testynsf.59iedu.com/index"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/buyclass-student.xlsx
+++ b/TestList/buyclass-student.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>序号
 （id）</t>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>//button[contains(@ng-bind,'Ing')]</t>
+  </si>
+  <si>
+    <t>waitlogin</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>classdetail</t>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,6 +159,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -159,61 +229,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,20 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -263,19 +281,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,49 +304,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,133 +466,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,31 +516,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -572,6 +557,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -586,16 +580,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,131 +613,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1237,33 +1246,33 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1274,7 +1283,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1282,8 +1291,8 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1294,35 +1303,55 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C7 C8 C9 C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C8 C9 C10 C11">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D65495">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D65496">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E10" r:id="rId1" display="http://testynsf.59iedu.com/index" tooltip="http://testynsf.59iedu.com/index"/>
+    <hyperlink ref="E11" r:id="rId1" display="http://testynsf.59iedu.com/index" tooltip="http://testynsf.59iedu.com/index"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/buyclass-student.xlsx
+++ b/TestList/buyclass-student.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>序号
 （id）</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>//button[contains(@ng-bind,'Ing')]</t>
+  </si>
+  <si>
+    <t>重跑</t>
   </si>
   <si>
     <t>waitlogin</t>
@@ -138,9 +141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,6 +162,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -167,19 +206,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,103 +276,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,19 +519,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,24 +575,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,131 +616,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1107,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1235,7 +1238,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
@@ -1243,16 +1246,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -1263,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1272,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1283,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1292,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -1303,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>23</v>
@@ -1312,7 +1315,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1323,7 +1326,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1332,7 +1335,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
